--- a/arquivo.xlsx
+++ b/arquivo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>PORTAL</t>
   </si>
@@ -31,10 +31,91 @@
     <t>portal cm7</t>
   </si>
   <si>
+    <t>Mundo </t>
+  </si>
+  <si>
+    <t>21 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Mundo – Uma jovem noiva acabou perdendo seu pai pouco antes de se casar e ficou arrasada com o acontecimento….</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/homem-morre-2-dias-antes-do-casamento-da-filha-mas-deixa-carta-emocionante-para-ser-lida-na-cerimonia/</t>
+  </si>
+  <si>
+    <t>Mundo – Mavys Álvarez sofreu um verdadeiro pesadelo ao lado de Diego Armando Maradona. Uma das antigas namoradas de El…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/maradona-me-estuprava-enquanto-a-minha-mae-chorava-atras-da-porta-revela-ex-namorada/</t>
+  </si>
+  <si>
     <t>Amazonas </t>
   </si>
   <si>
-    <t>21 de novembro de 2021</t>
+    <t>Amazonas – Um homem desapareceu após bater a cabeça ao mergulhar na Cachoeira do Castanho na tarde deste domingo (21)…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/homem-desaparece-apos-bater-a-cabeca-durante-banho-na-cachoeira-do-castanho-em-iranduba/</t>
+  </si>
+  <si>
+    <t>Política </t>
+  </si>
+  <si>
+    <t>O Presidente da ALEAM o Deputado Roberto Cidade esteve presente no evento realizado pela primeira vez na capital amazonense o…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/roberto-cidade-participa-do-ate-o-ultimo-samurai-challenge/</t>
+  </si>
+  <si>
+    <t>Cidades </t>
+  </si>
+  <si>
+    <t>A Prefeitura de Manaus, por meio da Secretaria Municipal de Infraestrutura ( Seminf), dá continuidade neste sábado, 20/11, ao regime…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/cidades/prefeitura-leva-asfalto-as-ruas-do-bairro-colonia-santo-antonio/</t>
+  </si>
+  <si>
+    <t>Polícia </t>
+  </si>
+  <si>
+    <t>Manaus  – Um homem identificado Thiago Costa Lira, 22 anos, morreu e Fabio Freitas dos Santos foi baleado na tarde…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/durante-bebedeira-homem-e-morto-a-tiros-na-compensa-veja-o-video/</t>
+  </si>
+  <si>
+    <t>Brasil – Durante as prévias presidenciais do PSDB, que começou na manhã deste domingo, a deputada federal Mara Rocha (PSDB-AC)…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/deputada-do-psdb-acusa-equipe-de-doria-de-tentar-comprar-voto-nas-previas-sou-bolsonaro/</t>
+  </si>
+  <si>
+    <t>Esportes </t>
+  </si>
+  <si>
+    <t>Competição contou com o apoio do Governo do Estado por meio da Faar Judocas de todas as idades movimentaram os…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/esportes/amazonense-de-judo-reune-mais-de-500-lutadores-na-arena-amadeu-teixeira/</t>
+  </si>
+  <si>
+    <t>Manaus – No inicio da tarde deste sábado (20), homens ainda não identificados invadiram um dos principais espaços de lazer…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/bandidos-invadem-museu-da-amazonia-e-visitantes-vivem-momentos-de-terror-nas-maos-de-criminosos/</t>
+  </si>
+  <si>
+    <t>Manaus – Evento frustado na noite deste sábado (20), isso porque a dona do “hit” senta com carinho, Mc Danny,…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/cidades/mc-danny-passa-mal-e-nao-comparece-a-show-em-manaus-e-fas-se-revoltam-veja-o-video/</t>
+  </si>
+  <si>
+    <t>Manaus – Na manhã deste domingo (21), um jovem identificado como Kerlisson Carvalho da Silva, de 16 anos, vulgo ‘Keke’,…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/vulgo-keke-e-executado-com-mais-de-10-tiros-no-santo-agostinho-imagens-exclusivas/</t>
   </si>
   <si>
     <t>Amazonas – A Fundação de Vigilância em Saúde Dra. Rosemary Costa Pinto (FVS-RCP), por meio do Boletim Diário de Covid-19,…</t>
@@ -43,67 +124,16 @@
     <t>https://portalcm7.com/amazonas/amazonas-permanece-sem-obitos-da-covid-19-diz-o-boletim-da-fvs-rcp-neste-domingo/</t>
   </si>
   <si>
-    <t>Mundo </t>
-  </si>
-  <si>
-    <t>Mundo – Mavys Álvarez sofreu um verdadeiro pesadelo ao lado de Diego Armando Maradona. Uma das antigas namoradas de El…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/mundo/maradona-me-estuprava-enquanto-a-minha-mae-chorava-atras-da-porta-revela-ex-namorada/</t>
-  </si>
-  <si>
-    <t>Política </t>
-  </si>
-  <si>
-    <t>Brasil – Durante as prévias presidenciais do PSDB, que começou na manhã deste domingo, a deputada federal Mara Rocha (PSDB-AC)…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/politica/deputada-do-psdb-acusa-equipe-de-doria-de-tentar-comprar-voto-nas-previas-sou-bolsonaro/</t>
-  </si>
-  <si>
-    <t>Esportes </t>
-  </si>
-  <si>
-    <t>Competição contou com o apoio do Governo do Estado por meio da Faar Judocas de todas as idades movimentaram os…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/esportes/amazonense-de-judo-reune-mais-de-500-lutadores-na-arena-amadeu-teixeira/</t>
-  </si>
-  <si>
-    <t>Polícia </t>
-  </si>
-  <si>
-    <t>Manaus – No inicio da tarde deste sábado (20), homens ainda não identificados invadiram um dos principais espaços de lazer…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/policia/bandidos-invadem-museu-da-amazonia-e-visitantes-vivem-momentos-de-terror-nas-maos-de-criminosos/</t>
-  </si>
-  <si>
-    <t>Cidades </t>
-  </si>
-  <si>
-    <t>Manaus – Evento frustado na noite deste sábado (20), isso porque a dona do “hit” senta com carinho, Mc Danny,…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/cidades/mc-danny-passa-mal-e-nao-comparece-a-show-em-manaus-e-fas-se-revoltam-veja-o-video/</t>
-  </si>
-  <si>
-    <t>A Prefeitura de Manaus, por meio da Secretaria Municipal de Infraestrutura ( Seminf), dá continuidade neste sábado, 20/11, ao regime…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/cidades/prefeitura-leva-asfalto-as-ruas-do-bairro-colonia-santo-antonio/</t>
-  </si>
-  <si>
-    <t>Manaus – Na manhã deste domingo (21), um jovem identificado como Kerlisson Carvalho da Silva, de 16 anos, vulgo ‘Keke’,…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/policia/vulgo-keke-e-executado-com-mais-de-10-tiros-no-santo-agostinho-imagens-exclusivas/</t>
-  </si>
-  <si>
-    <t>Manaus  – Um homem identificado Thiago Costa Lira, 22 anos, morreu e Fabio Freitas dos Santos foi baleado na tarde…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/policia/durante-bebedeira-homem-e-morto-a-tiros-na-compensa-veja-o-video/</t>
+    <t>Brasil – O resultado das prévias do PSDB corre o risco de não sair neste domingo (21). Isso porque o…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/falha-em-aplicativo-de-votacao-do-psdb-pode-adiar-resultado-das-previas-saiba-mais/</t>
+  </si>
+  <si>
+    <t>Manaus – Por volta das 15h, deste domingo (21), policiais militares da 8º Cicom, foram acionados por moradores da rua…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/urgente-dois-homens-foram-baleados-no-pacato-bairro-da-compensa/</t>
   </si>
   <si>
     <t>Brasil – Um homicídio foi registrado no bairro da COHAB II em Garanhuns, agreste de Pernambuco. O crime aconteceu por…</t>
@@ -112,34 +142,397 @@
     <t>https://portalcm7.com/noticias/policia/criminoso-pede-agua-em-casa-de-comerciante-e-atira-nele-diversas-vezes/</t>
   </si>
   <si>
-    <t>Brasil – O resultado das prévias do PSDB corre o risco de não sair neste domingo (21). Isso porque o…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/politica/falha-em-aplicativo-de-votacao-do-psdb-pode-adiar-resultado-das-previas-saiba-mais/</t>
-  </si>
-  <si>
-    <t>Mundo – Uma jovem noiva acabou perdendo seu pai pouco antes de se casar e ficou arrasada com o acontecimento….</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/mundo/homem-morre-2-dias-antes-do-casamento-da-filha-mas-deixa-carta-emocionante-para-ser-lida-na-cerimonia/</t>
-  </si>
-  <si>
-    <t>Manaus – Por volta das 15h, deste domingo (21), policiais militares da 8º Cicom, foram acionados por moradores da rua…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/policia/urgente-dois-homens-foram-baleados-no-pacato-bairro-da-compensa/</t>
-  </si>
-  <si>
-    <t>O Presidente da ALEAM o Deputado Roberto Cidade esteve presente no evento realizado pela primeira vez na capital amazonense o…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/noticias/politica/roberto-cidade-participa-do-ate-o-ultimo-samurai-challenge/</t>
-  </si>
-  <si>
-    <t>Amazonas – Um homem desapareceu após bater a cabeça ao mergulhar na Cachoeira do Castanho na tarde deste domingo (21)…</t>
-  </si>
-  <si>
-    <t>https://portalcm7.com/amazonas/homem-desaparece-apos-bater-a-cabeca-durante-banho-na-cachoeira-do-castanho-em-iranduba/</t>
+    <t>27 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Brasil – O governador de São Paulo, João Doria, venceu as prévias e foi escolhido, neste sábado (27), como candidato…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/joao-doria-vence-previas-e-e-escolhido-como-candidato-do-psdb-a-presidencia/</t>
+  </si>
+  <si>
+    <t>Manaus –  Condomínios de luxo na Ponta Negra e no Parque das Laranjeiras e uma loja no Parque das Laranjeiras…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/piramide-digital-dinheiro-era-lavado-com-carros-de-luxo-na-ponta-negra-e-parque-das-laranjeiras/</t>
+  </si>
+  <si>
+    <t>Famosos </t>
+  </si>
+  <si>
+    <t>Brasil – Quando parece que a internet já tinha surpreendido em tudo, não é que aparece outra novidade? Desta vez,…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/famosos/sexo-violencia-e-fas-queimados-saiba-o-que-rolou-no-show-de-joao-gomes/</t>
+  </si>
+  <si>
+    <t>Amazonas – Na tarde deste sábado (27), uma balsa que estava atracada no Rio Madeira, no município de Autazes, foi…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/balsa-de-garimpeiros-pega-fogo-no-rio-madeira-no-amazonas-veja-video/</t>
+  </si>
+  <si>
+    <t>Manaus – Nas primeiras horas da manhã deste sábado (27/11), a Polícia Civil do Amazonas (PC-AM), por meio das equipes…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/carros-de-luxo-de-filhos-de-papai-sao-apreendidos-em-operacao-operacao-blockchain-fake-em-manaus/</t>
+  </si>
+  <si>
+    <t>Amazonas – Com aproximadamente 90% dos municípios do Amazonas já visitados, o veterano do Exército Brasileiro, coronel Alfredo Menezes (Patriota),…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/coronel-menezes-retoma-viagens-pelo-interior-para-receber-as-demandas-do-povo/</t>
+  </si>
+  <si>
+    <t>Amazonas – O governador Wilson Lima iniciou, na manhã da última sexta-feira (26/11), a entrega do Auxílio Estadual permanente aos…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/auxilio-estadual-wilson-lima-inicia-entrega-dos-cartoes-a-mais-de-8-mil-familias-de-parintins/</t>
+  </si>
+  <si>
+    <t>Brasil – O Palmeiras precisou de apenas 301 dias para conquistar um raro bicampeonato consecutivo da Copa Libertadores. Com gols…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/esportes/palmeiras-derrota-flamengo-por-2x1-e-conquista-3o-titulo-da-libertadores/</t>
+  </si>
+  <si>
+    <t>Brasil – Mesmo sendo torcedor declarado do Palmeiras, inclusive levantando a taça de campeão brasileiro ao lado de jogadores, o…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/esportes/ainda-sendo-palmeirense-presidente-declara-torcida-ao-mengao-em-final-da-libertadores/</t>
+  </si>
+  <si>
+    <t>Mundo – O avanço da 4ª onda de Covid na Europa fez com que muitos países atualizassem as restrições. A…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/paises-da-europa-atualizam-restricoes-com-4a-onda-da-covid-da-cepa-omicron/</t>
+  </si>
+  <si>
+    <t>Passando a limpo </t>
+  </si>
+  <si>
+    <t>O PSDB planejava divulgar quem seria seu candidato à Presidência da República no fim da tarde do último domingo (21/11). Um…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/colunas/passando-a-limpo/apos-fiasco-em-votacao-arthur-retoma-previas-com-psdb-em-clima-de-guerra/</t>
+  </si>
+  <si>
+    <t>Brasil – O presidente Jair Bolsonaro participa neste sábado (27) às 11h, em Resende, sul do estado, na Academia Militar…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/presidente-bolsonaro-participa-da-formatura-de-cadetes-do-exercito-na-aman/</t>
+  </si>
+  <si>
+    <t>Brasil – Flamengo e Palmeiras vão protagonizar mais uma final brasileira da Copa Libertadores da América. Os gigantes, ambos em…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/esportes/flamengo-x-palmeiras-manaus-amanhece-em-clima-de-festa-com-a-grande-decisao-deste-sabado-br/</t>
+  </si>
+  <si>
+    <t>29 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Manaus – Na noite deste domingo (28), o pintor Adailson Ferreira da Silva, de 30 anos de idade, foi brutalmente…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/pintor-perde-a-vida-por-causa-de-r100-em-manaus/</t>
+  </si>
+  <si>
+    <t>Futebol </t>
+  </si>
+  <si>
+    <t>26 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Brasil – Em meio a uma multidão de torcedores do Flamengo e alguns do Palmeiras no Mercado del Puerto, em…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/esportes/futebol/vascaino-vai-a-final-da-libertadores-com-flamenguistas-acho-que-nunca-vou-ver-meu-time-assim/</t>
+  </si>
+  <si>
+    <t>Manaus – Na noite desta sexta-feira (26), o mecânico Alberto Corrêa da Silva, de 50 anos, morreu após ser atropelado…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/carro-passa-por-cima-de-mecanico-durante-acidente-fatal-no-bairro-sao-raimundo-veja-video/</t>
+  </si>
+  <si>
+    <t>28 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Manaus – Informações que um mototaxista foi executado com vários tiros na rua Oscar Borel, bairro da Compensa, zona oeste…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/urgente-mototaxista-e-executado-no-bairro-da-compensa-cenas-fortes/</t>
+  </si>
+  <si>
+    <t>Brasil – O presidente Jair Bolsonaro disse que o Brasil e o mundo não aguentam um novo lockdown, ao comentar…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/bolsonaro-diz-que-brasil-e-o-mundo-nao-aguentam-um-novo-lockdown/</t>
+  </si>
+  <si>
+    <t>Amazonas – Totalmente construído pelo grupo de Keitton Pinheiro (Progressistas), o bairro de Santa Efigênia foi palco de mais um…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/bairro-santa-efigenia-declara-apoio-a-keitton-pinheiro-para-a-prefeitura-de-coari/</t>
+  </si>
+  <si>
+    <t>Amazonas – Aconteceu neste sábado (27), em Iranduba, a audiência pública para apresentação do projeto para implantação de um aterro…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/comunidade-e-orgaos-publicos-participam-de-audiencia-publica-em-iranduba/</t>
+  </si>
+  <si>
+    <t>Amazonas – Escola de Contas Públicas – TCE/AM realiza curso de etiqueta profissional e atendimento ao público, no dia 29…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/tce-am-realiza-curso-aberto-ao-publico-de-forma-presencial/</t>
+  </si>
+  <si>
+    <t>Manaus – O corpo de uma mulher foi encontrado dentro de uma mala próximo do balneário do Gouveia, o local…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/corpo-de-mulher-e-encontrado-dentro-de-mala-no-ramal-do-brasileirinho-cenas-fortissimas/</t>
+  </si>
+  <si>
+    <t>Brasil </t>
+  </si>
+  <si>
+    <t>Brasil – Encerrada às 18h30 de hoje (28), a edição 2021 do Exame Nacional do Ensino Médio avaliou os conhecimentos…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/ao-vivo-caiu-no-enem-corrige-questoes-do-segundo-dia-de-provas/</t>
+  </si>
+  <si>
+    <t>Amazonas – O conselheiro do Tribunal de Contas do Estado do Amazonas (TCE-AM) Josué Neto, pediu informações e cautela de…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/josue-neto-pede-cautela-e-informacoes-para-combate-a-covid-19/</t>
+  </si>
+  <si>
+    <t>Amazonas – O Amazonas não registrou novas mortes por Covid-19 nas últimas 24 horas, segundo boletim deste domingo (28) da…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/amazonas-registra-35-novos-casos-e-nenhuma-morte-por-covid-19-nas-ultimas-24-horas/</t>
+  </si>
+  <si>
+    <t>Amazonas – Uma casa lotérica, localizada na cidade de Manaquiri, distante a 156 km da capital, foi assaltada neste sábado, por…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/casa-loterica-e-assaltada-na-cidade-de-manaquiri-veja-o-video/</t>
+  </si>
+  <si>
+    <t>Amazonas – Diferentemente do que prega no Amazonas, o ex-prefeito de Manaus, Arthur Neto, 76, confirmou, neste sábado (27), sua…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/arthur-neto-e-rejeitado-e-humilhado-nas-previas-presidenciais-do-psdb/</t>
+  </si>
+  <si>
+    <t>Mundo – Frank Williams, uma das maiores lendas do automobilismo mundial, morreu neste domingo (28), aos 79 anos. A morte…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/morre-frank-williams-criador-de-uma-das-mais-vencedoras-equipes-da-f1/</t>
+  </si>
+  <si>
+    <t>Brasil – Um terremoto de magnitude 7,5 abalou a remota região amazônica do norte do Peru na manhã deste domingo…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/terremoto-de-magnitude-75-atinge-regiao-amazonica-do-norte-do-peru/</t>
+  </si>
+  <si>
+    <t>Brasil – A Agência Nacional de Vigilância Sanitária (Anvisa) informou hoje (28) que um brasileiro com passagem pela África do…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/brasileiro-testa-positivo-para-covid-19-ao-chegar-da-africa-do-sul/</t>
+  </si>
+  <si>
+    <t>Brasil – O sindicato Nacional dos Aeronautas (SNA) informou hoje, em comunicado, que funcionários do setor aeroviário decidiram, em votação…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/trabalhadores-do-setor-aereo-cancelam-greve-programada-para-amanha/</t>
+  </si>
+  <si>
+    <t>Mundo — A BioNTech informou, nesta segunda-feira (29), que começou a trabalhar em uma vacina para combater a ômicron, a…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/biontech-comeca-a-trabalhar-em-vacina-para-combater-a-variante-omicron/</t>
+  </si>
+  <si>
+    <t>Brasil – Nesta segunda-feira (29), o presidente do Instituto Nacional de Estudos e Pesquisas Educacionais Anísio Teixeira (Inep), Danilo Dupas,…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/resultado-do-enem-sera-divulgado-em-fevereiro-anuncia-inep/</t>
+  </si>
+  <si>
+    <t>Brasil – Depois de quase um mês sem compromissos, quando tirou um tempo para assimilar o trágico acidente que vitimou…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/famosos/ex-de-marilia-mendonca-volta-aos-palcos-em-brasilia-com-homenagem-para-a-cantora/</t>
+  </si>
+  <si>
+    <t>Brasil – Três homens armados invadiram um torneio de sinuca em Barra Velha, no litoral norte de Santa Catarina. Toda…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/bandidos-invadem-bar-durante-torneio-de-sinuca-e-assalto-e-transmitido-ao-vivo-veja-video/</t>
+  </si>
+  <si>
+    <t>Brasil – O ator Caio Castro se envolveu em uma polêmica nas redes sociais nesta segunda-feira (29/11). Em seu Instagram, o…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/famosos/blogueira-expoe-convite-especial-de-caio-castro-e-e-desconvidada-em-publico-pelo-ator-veja-video/</t>
+  </si>
+  <si>
+    <t>Economia </t>
+  </si>
+  <si>
+    <t>Brasil – O distanciamento social e as restrições de circulação que afastaram as famílias no Natal de 2020 não devem…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/polo-industrial-de-manaus/ceia-de-natal-pos-vacina-sera-com-frango-e-cerveja-aponta-pesquisa/</t>
+  </si>
+  <si>
+    <t>Brasil – Nesta segunda-feira (29), o presidente Jair Bolsonaro gravou um vídeo em que deseja boa sorte ao ex-ministro da…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/presidente-bolsonaro-grava-video-em-que-declara-apoio-a-andre-mendonca-que-sera-sabatinado-para-vaga-no-stf/</t>
+  </si>
+  <si>
+    <t>Brasil – Ana Clara Lima sofreu um acidente durante sua viagem para Tamandaré, em Pernambuco, para o aniversáio do influencer…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/famosos/ana-clara-sofre-acidente-durante-viagem-para-pernambuco/</t>
+  </si>
+  <si>
+    <t>Mundo – Hugo ‘El Pollo’ Carvajal, ex-chefe da inteligência da Venezuela e protetor das FARC (Forças Armadas Revolucionárias da Colômbia),…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/colunas/passando-a-limpo/ligacao-entre-narcotrafico-e-governo-lula-pode-ficar-clara-apos-extradicao-de-el-pollo-carvajal-aos-eua/</t>
+  </si>
+  <si>
+    <t>O deputado Federal Bibo Nunes (PSL-RS), que decidiu acompanhar o presidente Jair Bolsonaro (sem partido) no Partido Liberal (PL) assim que a Justiça Eleitoral confirmar…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/com-entrada-de-bolsonaro-pl-pode-ter-a-maior-bancada-do-congresso-analisa-deputado-bibo-nunes/</t>
+  </si>
+  <si>
+    <t>Brasil – São Paulo e Vasco viraram alvos de provocações dos rivais devido a uma pergunta de matemática aplicada no…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/sao-paulo-e-vasco-sao-zoados-apos-pergunta-sobre-copa-do-brasil-no-enem/</t>
+  </si>
+  <si>
+    <t>Entretenimento </t>
+  </si>
+  <si>
+    <t>Brasil – A amazonense Ruivinha de Marte está dando o que falar nesta segunda-feira (29). Tudo porque a cantora Anitta…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/ruivinha-de-marte-grava-clipe-com-anitta-e-internautas-vibram-com-o-sucesso-da-amazonense-veja-videos/</t>
+  </si>
+  <si>
+    <t>Brasil – A cantora Anitta está de passagem pelo Brasil e tem aproveitado toda a cultura nortista que rodeia a…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/entretenimento/anitta-vai-no-mercadao-e-compra-oleo-da-bota-para-enfeiticar-os-boys-veja-video/</t>
+  </si>
+  <si>
+    <t>Manaus – A Prefeitura, por meio do Sine Manaus, oferta 250 vagas de emprego em várias áreas de atuação, nesta…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/polo-industrial-de-manaus/procurando-emprego-sine-manaus-oferece-250-vagas-nesta-terca-feira-30-confira/</t>
+  </si>
+  <si>
+    <t>30 de novembro de 2021</t>
+  </si>
+  <si>
+    <t>Amazonas – Nesta terça-feira (22/11), a Prerrogativa Prevista em Lei Federal que garante a permanência em cela de Estado Maior…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/oab-am-comemora-lei-que-regulamenta-aos-advogados-prisoes-em-sala-de-estado-maior/</t>
+  </si>
+  <si>
+    <t>Manaus </t>
+  </si>
+  <si>
+    <t>Manaus – O presidente da Câmara Municipal de Manaus (CMM), vereador David Reis (Avante), lança nesta quarta-feira (1º/12), às 14h,…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/amazonas/manaus/david-reis-lanca-programa-de-qualificacao-para-quem-busca-emprego/</t>
+  </si>
+  <si>
+    <t>Brasil –  Uma força-tarefa foi montada pela Polícia Civil de Goiás, na segunda-feira (29), para capturar um suspeito de matar…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/novo-lazaro-homem-comete-triplo-homicidio-foge-e-policia-cria-forca-tarefa-para-prende-lo/</t>
+  </si>
+  <si>
+    <t>Brasil — O vídeo de um jovem que aparenta ter idade entre 20 e 25 anos está viralizando na manhã…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/filho-se-despede-dos-pais-apos-degolar-amigo-no-meio-da-rua-cenas-fortissimas/</t>
+  </si>
+  <si>
+    <t>Mundo – As autoridades de saúde da Holanda afirmaram nesta terça-feira, 30, que a variante Ômicron do coronavírus já estava…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/variante-omicron-circula-na-europa-ha-pelo-menos-11-dias-afirma-holanda/</t>
+  </si>
+  <si>
+    <t>Brasil – O pré-candidato ao senado Coronel Alfredo Menezes esteve nesta terça-feira (30/11) na cerimônia que consagrou a filiação do…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/menezes-e-aliados-comemoram-filiacao-do-presidente-bolsonaro-ao-pl-em-2022-sera-22/</t>
+  </si>
+  <si>
+    <t>Brasil – Um concurso inusitado que aconteceu em Balneário Camboriú, no Litoral Norte de Santa Catarina, tem dado o que…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/concurso-nacional-elege-a-dona-da-vagina-mais-bonita-do-brasil-conheca/</t>
+  </si>
+  <si>
+    <t>Mundo – Um vídeo que está sendo compartilhado nas redes sociais na tarde desta terça-feira (30), mostra o momento que…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/fa-surta-no-cinema-por-causa-de-ingresso-do-homem-aranha-3-veja-video/</t>
+  </si>
+  <si>
+    <t>Manaus – A Prefeitura divulgou, nesta terça-feira (30), o resultado do processo seletivo do Bolsa Universidade 2022/1 e Bolsa Idiomas…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/cidades/prefeitura-de-manaus-divulga-resultados-dos-bolsas-universidade-e-idiomas-2022-confira/</t>
+  </si>
+  <si>
+    <t>Brasil — O vereador petista Ronivaldo Maia (PT-CE), de Fortaleza, foi preso nesta terça-feira (29), após atropelar e arrastar uma…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/vereador-do-pt-passa-por-cima-de-mulher-com-carro-e-e-indiciado-por-tentativa-de-feminicidio/</t>
+  </si>
+  <si>
+    <t>Brasil — A Agência Nacional de Vigilância Sanitária (Anvisa) informou nesta terça-feira (30) que serão enviadas para análise laboratorial confirmatória as…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/brasil/urgente-variante-omicron-ja-esta-no-brasil-confirma-anvisa/</t>
+  </si>
+  <si>
+    <t>Mundo – No último domingo, a parlamentar Julie Anne Genter decidiu pedalar de madrugada com o marido até um hospital…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/em-trabalho-de-parto-mulher-pedala-ate-hospital-para-dar-a-luz/</t>
+  </si>
+  <si>
+    <t>Brasil – O prefeito de Manaus David Almeida (Avante) acompanhou nesta terça-feira (30/11) a filiação do presidente Jair Messias Bolsonaro…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/politica/david-almeida-e-secretarios-saba-reis-e-renato-junior-acompanham-filiacao-do-presidente-bolsonaro/</t>
+  </si>
+  <si>
+    <t>Brasil – O vídeo de um jovem que aparenta ter idade entre 20 e 25 anos está viralizando na manhã…</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/policia/jovem-fica-gravemente-ferido-apos-vizinho-ataca-lo-de-bicicleta-veja-o-video/</t>
+  </si>
+  <si>
+    <t>https://portalcm7.com/noticias/mundo/porradao-na-fila-do-cinema-tem-chute-e-soco-na-cara-por-ingressos-do-homem-aranha-veja-video/</t>
   </si>
 </sst>
 </file>
@@ -179,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -224,16 +617,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -241,16 +634,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -258,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -275,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -292,16 +685,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -309,16 +702,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -326,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -343,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>7</v>
@@ -360,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>7</v>
@@ -377,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>7</v>
@@ -394,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>7</v>
@@ -411,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>7</v>
@@ -428,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>7</v>
@@ -445,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>7</v>
@@ -455,6 +848,1026 @@
       </c>
       <c r="E16" s="0" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
